--- a/Excel/器灵/WeaponSoul.xlsx
+++ b/Excel/器灵/WeaponSoul.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mywork\UE4\UE4RougeLike\Excel\器灵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BE8580-002F-4D46-84C1-D5E6F8141193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B7A40B-2BF6-4597-B62D-DAF73DB27D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="450" windowWidth="21600" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,35 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>James Loo</author>
     <author>James</author>
-    <author>James Loo</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{B9C57A86-2397-4668-9201-DCFF68640E0C}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{846182F1-6549-49F2-906F-288CF0AA84BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t>James Loo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+同一种器灵使用同样的Type</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{B9C57A86-2397-4668-9201-DCFF68640E0C}">
       <text>
         <r>
           <rPr>
@@ -50,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{280AAEFB-C11E-453B-8EBA-ACA0A055EC79}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{280AAEFB-C11E-453B-8EBA-ACA0A055EC79}">
       <text>
         <r>
           <rPr>
@@ -74,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{3095D513-DFEE-43D0-B3CB-D01C776AC076}">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{3095D513-DFEE-43D0-B3CB-D01C776AC076}">
       <text>
         <r>
           <rPr>
@@ -98,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{D9224E66-9F56-45AF-B382-2811FC4A5CC0}">
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{D9224E66-9F56-45AF-B382-2811FC4A5CC0}">
       <text>
         <r>
           <rPr>
@@ -122,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{EA2FA729-F582-49CF-A488-96A686869A5C}">
+    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{EA2FA729-F582-49CF-A488-96A686869A5C}">
       <text>
         <r>
           <rPr>
@@ -146,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{D793BBB7-8A54-4273-B272-BC7F1DB96A0D}">
+    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{D793BBB7-8A54-4273-B272-BC7F1DB96A0D}">
       <text>
         <r>
           <rPr>
@@ -170,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{2670695A-E3A7-46DC-BFF6-AA0C0528C680}">
+    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{2670695A-E3A7-46DC-BFF6-AA0C0528C680}">
       <text>
         <r>
           <rPr>
@@ -195,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{7744A9F0-FB29-45D7-9465-D4A1533C4B00}">
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{7744A9F0-FB29-45D7-9465-D4A1533C4B00}">
       <text>
         <r>
           <rPr>
@@ -220,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{F9A7A6FB-234F-4610-9186-F49F276772E6}">
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{F9A7A6FB-234F-4610-9186-F49F276772E6}">
       <text>
         <r>
           <rPr>
@@ -245,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{0766F131-B06F-4C6A-A7A2-8E192811C25F}">
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{0766F131-B06F-4C6A-A7A2-8E192811C25F}">
       <text>
         <r>
           <rPr>
@@ -270,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{20E40F7F-5AF7-43DC-8551-46C83F672712}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{20E40F7F-5AF7-43DC-8551-46C83F672712}">
       <text>
         <r>
           <rPr>
@@ -294,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{30DD6708-232F-4B08-AA50-A5A1C5102237}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{30DD6708-232F-4B08-AA50-A5A1C5102237}">
       <text>
         <r>
           <rPr>
@@ -319,7 +343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="1" shapeId="0" xr:uid="{F5F54FBA-6CB3-47FA-B17E-1C432BFDDAA7}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{F5F54FBA-6CB3-47FA-B17E-1C432BFDDAA7}">
       <text>
         <r>
           <rPr>
@@ -343,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="1" shapeId="0" xr:uid="{0F3433ED-49AE-48F5-880C-188958B33F56}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{0F3433ED-49AE-48F5-880C-188958B33F56}">
       <text>
         <r>
           <rPr>
@@ -364,6 +388,55 @@
           </rPr>
           <t xml:space="preserve">
 器魂的特效</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{1E930828-EBE7-460D-B44D-DBA21B25D25F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t>James Loo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+同样的器灵不同的等级属性显示效果附带的技能也可以不同
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{9108CBA9-AF14-4204-90DF-0ACE4AE980FA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t>James Loo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+销毁时间 每次召唤器灵都有时效</t>
         </r>
       </text>
     </comment>
@@ -372,7 +445,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>---</t>
   </si>
@@ -433,6 +506,15 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>DestroyTime</t>
   </si>
 </sst>
 </file>
@@ -1438,173 +1520,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
         <v>100</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
         <v>5</v>
-      </c>
-      <c r="F2" s="1">
-        <v>100</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
         <v>60</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>10</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>5</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>2</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>9</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>16</v>
       </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>70</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
+    <row r="4" spans="1:18" s="1" customFormat="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>80</v>
+      </c>
+      <c r="J4" s="1">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" s="1" customFormat="1">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
+    <row r="5" spans="1:18" s="1" customFormat="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>80</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>90</v>
+      </c>
+      <c r="J5" s="1">
+        <v>10</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1">
+    <row r="6" spans="1:18" s="1" customFormat="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>92</v>
+      </c>
+      <c r="J6" s="1">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1">
+        <v>5</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="1" customFormat="1">
       <c r="A7"/>
-      <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
@@ -1620,10 +1887,10 @@
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
+      <c r="R7"/>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1">
+    <row r="8" spans="1:18" s="1" customFormat="1">
       <c r="A8"/>
-      <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
@@ -1639,10 +1906,10 @@
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
+      <c r="R8"/>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1">
+    <row r="9" spans="1:18" s="1" customFormat="1">
       <c r="A9"/>
-      <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
@@ -1658,6 +1925,7 @@
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
+      <c r="R9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Excel/器灵/WeaponSoul.xlsx
+++ b/Excel/器灵/WeaponSoul.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mywork\UE4\UE4RougeLike\Excel\器灵\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mywork\UE4\UE4RougeLikeGithub\Excel\器灵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B7A40B-2BF6-4597-B62D-DAF73DB27D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDC9CF5-4A11-4649-A8EC-E9999493EF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
   <authors>
     <author>James Loo</author>
     <author>James</author>
+    <author>6</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{846182F1-6549-49F2-906F-288CF0AA84BC}">
@@ -34,7 +35,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="1"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>James Loo:</t>
         </r>
@@ -43,7 +45,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="1"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 同一种器灵使用同样的Type</t>
@@ -58,6 +61,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>James:</t>
@@ -67,6 +71,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -82,6 +87,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>James:</t>
@@ -91,6 +97,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -98,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{3095D513-DFEE-43D0-B3CB-D01C776AC076}">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{7592FAC9-51E6-4D04-ABCE-6C60A4EADED0}">
       <text>
         <r>
           <rPr>
@@ -106,6 +113,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>James:</t>
@@ -115,14 +123,15 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-物理攻击力 近程怪计算</t>
+物理攻击力</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{D9224E66-9F56-45AF-B382-2811FC4A5CC0}">
+    <comment ref="F1" authorId="2" shapeId="0" xr:uid="{737848B6-6875-4BE3-9F73-454AC58E1BA3}">
       <text>
         <r>
           <rPr>
@@ -130,23 +139,25 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>James:</t>
+          <t>6:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-物理防御力 近程怪计算 对应物理攻击力</t>
+魔法攻击</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{EA2FA729-F582-49CF-A488-96A686869A5C}">
+    <comment ref="G1" authorId="2" shapeId="0" xr:uid="{06026A2E-5B56-4BC3-9449-BE85C606C213}">
       <text>
         <r>
           <rPr>
@@ -154,23 +165,25 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>James:</t>
+          <t>6:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-魔法攻击力 远程怪</t>
+攻击速度</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{D793BBB7-8A54-4273-B272-BC7F1DB96A0D}">
+    <comment ref="H1" authorId="2" shapeId="0" xr:uid="{8DCF2C4C-DB51-44F2-9E40-DE242DCEC45C}">
       <text>
         <r>
           <rPr>
@@ -178,23 +191,25 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>James:</t>
+          <t>6:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-魔法防御力 针对魔法攻击力</t>
+移动速度</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{2670695A-E3A7-46DC-BFF6-AA0C0528C680}">
+    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{CA942744-CA0A-4F9F-99F4-5AE9EFBD081A}">
       <text>
         <r>
           <rPr>
@@ -202,24 +217,25 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>James:</t>
+          <t>6:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-命中
-（0.0f - 100.0f)</t>
+物理防御</t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{7744A9F0-FB29-45D7-9465-D4A1533C4B00}">
+    <comment ref="J1" authorId="2" shapeId="0" xr:uid="{69E4F6C0-321A-403D-AA75-FA3CFCE5AE69}">
       <text>
         <r>
           <rPr>
@@ -227,24 +243,25 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>James:</t>
+          <t>6:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-闪避
-（0.0f - 100.0f)</t>
+魔法防御</t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{F9A7A6FB-234F-4610-9186-F49F276772E6}">
+    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{ADC1B3C5-722B-4483-AE60-4062C74BC9EC}">
       <text>
         <r>
           <rPr>
@@ -252,24 +269,25 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>James:</t>
+          <t>6:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-暴击攻击概率
-（0.0f - 100.0f)</t>
+暴击</t>
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{0766F131-B06F-4C6A-A7A2-8E192811C25F}">
+    <comment ref="L1" authorId="2" shapeId="0" xr:uid="{AEA5D9DA-0E0E-4BC7-9CDE-CC67AC3ED1B4}">
       <text>
         <r>
           <rPr>
@@ -277,24 +295,25 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>James:</t>
+          <t>6:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-暴击防御概率
-（0.0f - 100.0f)</t>
+暴击伤害</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{20E40F7F-5AF7-43DC-8551-46C83F672712}">
+    <comment ref="M1" authorId="2" shapeId="0" xr:uid="{CF675296-1D34-424F-84F3-CC9F165C170F}">
       <text>
         <r>
           <rPr>
@@ -302,7 +321,60 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="1"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>6:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+灵力</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="2" shapeId="0" xr:uid="{AA2CDEEA-2AFC-48E9-9F17-26FD46657E84}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>6:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+理智</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{20E40F7F-5AF7-43DC-8551-46C83F672712}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>James Loo:</t>
         </r>
@@ -311,14 +383,15 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="1"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 调用的SkillBP</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{30DD6708-232F-4B08-AA50-A5A1C5102237}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{30DD6708-232F-4B08-AA50-A5A1C5102237}">
       <text>
         <r>
           <rPr>
@@ -326,7 +399,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="1"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>James Loo:</t>
         </r>
@@ -335,7 +409,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="1"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 恢复的血量 1秒内
@@ -343,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{F5F54FBA-6CB3-47FA-B17E-1C432BFDDAA7}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{F5F54FBA-6CB3-47FA-B17E-1C432BFDDAA7}">
       <text>
         <r>
           <rPr>
@@ -351,7 +426,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="1"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>James Loo:</t>
         </r>
@@ -360,14 +436,15 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="1"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 单次攻击时能同时攻击的目标数</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{0F3433ED-49AE-48F5-880C-188958B33F56}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{0F3433ED-49AE-48F5-880C-188958B33F56}">
       <text>
         <r>
           <rPr>
@@ -375,7 +452,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="1"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>James Loo:</t>
         </r>
@@ -384,14 +462,15 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="1"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 器魂的特效</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{1E930828-EBE7-460D-B44D-DBA21B25D25F}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{1E930828-EBE7-460D-B44D-DBA21B25D25F}">
       <text>
         <r>
           <rPr>
@@ -399,7 +478,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="1"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>James Loo:</t>
         </r>
@@ -408,7 +488,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="1"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 同样的器灵不同的等级属性显示效果附带的技能也可以不同
@@ -416,7 +497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{9108CBA9-AF14-4204-90DF-0ACE4AE980FA}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{9108CBA9-AF14-4204-90DF-0ACE4AE980FA}">
       <text>
         <r>
           <rPr>
@@ -424,7 +505,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="1"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>James Loo:</t>
         </r>
@@ -433,7 +515,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="1"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 销毁时间 每次召唤器灵都有时效</t>
@@ -445,7 +528,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="26">
   <si>
     <t>---</t>
   </si>
@@ -466,23 +549,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CritAttack</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CritDefence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BP_Skill_Earth</t>
   </si>
   <si>
     <t>Health</t>
@@ -493,16 +561,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BP_Skill</t>
-  </si>
-  <si>
     <t>HealthBase</t>
   </si>
   <si>
     <t>TargetCount</t>
-  </si>
-  <si>
-    <t>WeaponSoulEffect</t>
   </si>
   <si>
     <t>None</t>
@@ -516,23 +578,71 @@
   <si>
     <t>DestroyTime</t>
   </si>
+  <si>
+    <t>AttackSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponSoulEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Blueprints/Skill/SkillEarth/BP_Skill_Earth_1002.BP_Skill_Earth_1002_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Blueprints/Skill/SkillEarth/BP_Skill_Earth_1001.BP_Skill_Earth_1001_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Blueprints/Skill/SkillEarth/BP_Skill_Earth_1003.BP_Skill_Earth_1003_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Blueprints/Skill/SkillEarth/BP_Skill_Earth_1004.BP_Skill_Earth_1004_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Blueprints/Skill/SkillEarth/BP_Skill_Earth_1005.BP_Skill_Earth_1005_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -540,7 +650,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -549,7 +659,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -558,7 +668,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -567,7 +677,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -576,7 +686,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -584,7 +694,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -592,7 +702,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -600,7 +710,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -608,7 +718,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -617,7 +727,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -626,7 +736,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -634,7 +744,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -643,7 +753,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -651,7 +761,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -660,7 +770,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -669,7 +779,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -677,7 +787,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -686,6 +796,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -693,20 +804,8 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1520,77 +1619,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="10" max="10" width="10.375" customWidth="1"/>
+    <col min="15" max="15" width="80.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1604,49 +1710,55 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
+        <v>40</v>
+      </c>
+      <c r="F2">
+        <v>40</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
         <v>60</v>
       </c>
-      <c r="J2" s="1">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1660,49 +1772,55 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>40</v>
-      </c>
-      <c r="F3" s="1">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
       </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
         <v>70</v>
       </c>
-      <c r="J3" s="1">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="1">
-        <v>5</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="S3" s="1">
         <v>2</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>2</v>
-      </c>
-      <c r="R3">
+      <c r="T3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="1" customFormat="1">
+    <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1719,46 +1837,52 @@
         <v>60</v>
       </c>
       <c r="F4" s="1">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>80</v>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
       </c>
       <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1">
+        <v>80</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1">
-        <v>5</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4">
+      <c r="S4" s="1">
         <v>3</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>3</v>
-      </c>
-      <c r="R4">
+      <c r="T4">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="1" customFormat="1">
+    <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1772,49 +1896,55 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>3</v>
-      </c>
-      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5</v>
+      </c>
+      <c r="L5" s="1">
         <v>90</v>
       </c>
-      <c r="J5" s="1">
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="1">
-        <v>5</v>
-      </c>
-      <c r="L5" s="1">
-        <v>2</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5">
+      <c r="S5" s="1">
         <v>4</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>4</v>
-      </c>
-      <c r="R5">
+      <c r="T5">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="1" customFormat="1">
+    <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1828,104 +1958,2223 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
+        <v>80</v>
+      </c>
+      <c r="F6" s="1">
+        <v>80</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>5</v>
+      </c>
+      <c r="L6" s="1">
         <v>100</v>
       </c>
-      <c r="F6" s="1">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>92</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="1">
-        <v>5</v>
-      </c>
-      <c r="L6" s="1">
-        <v>2</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="S6" s="1">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>500</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>80</v>
+      </c>
+      <c r="F7" s="1">
+        <v>80</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>5</v>
+      </c>
+      <c r="L7" s="1">
+        <v>100</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>5</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="1">
+        <v>5</v>
+      </c>
+      <c r="T7" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>500</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>80</v>
+      </c>
+      <c r="F8" s="1">
+        <v>80</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>5</v>
+      </c>
+      <c r="L8" s="1">
+        <v>100</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>5</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="1">
+        <v>5</v>
+      </c>
+      <c r="T8" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>500</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>80</v>
+      </c>
+      <c r="F9" s="1">
+        <v>80</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>5</v>
+      </c>
+      <c r="L9" s="1">
+        <v>100</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>5</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="1">
+        <v>5</v>
+      </c>
+      <c r="T9" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
-      <c r="P6" s="1" t="s">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>500</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>80</v>
+      </c>
+      <c r="F10" s="1">
+        <v>80</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>5</v>
+      </c>
+      <c r="L10" s="1">
+        <v>100</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>5</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="1">
+        <v>5</v>
+      </c>
+      <c r="T10" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>500</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>80</v>
+      </c>
+      <c r="F11" s="1">
+        <v>80</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5</v>
+      </c>
+      <c r="L11" s="1">
+        <v>100</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>5</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" s="1">
+        <v>5</v>
+      </c>
+      <c r="T11" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>500</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>80</v>
+      </c>
+      <c r="F12" s="1">
+        <v>80</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5</v>
+      </c>
+      <c r="L12" s="1">
+        <v>100</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>5</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="1">
+        <v>5</v>
+      </c>
+      <c r="T12" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>500</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>80</v>
+      </c>
+      <c r="F13" s="1">
+        <v>80</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5</v>
+      </c>
+      <c r="L13" s="1">
+        <v>100</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>5</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" s="1">
+        <v>5</v>
+      </c>
+      <c r="T13" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>500</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>80</v>
+      </c>
+      <c r="F14" s="1">
+        <v>80</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>5</v>
+      </c>
+      <c r="L14" s="1">
+        <v>100</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>5</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="1">
+        <v>5</v>
+      </c>
+      <c r="T14" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>500</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>80</v>
+      </c>
+      <c r="F15" s="1">
+        <v>80</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>5</v>
+      </c>
+      <c r="L15" s="1">
+        <v>100</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>5</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="1">
+        <v>5</v>
+      </c>
+      <c r="T15" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>500</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>80</v>
+      </c>
+      <c r="F16" s="1">
+        <v>80</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5</v>
+      </c>
+      <c r="L16" s="1">
+        <v>100</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>5</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" s="1">
+        <v>5</v>
+      </c>
+      <c r="T16" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="Q6" s="1">
-        <v>5</v>
-      </c>
-      <c r="R6">
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>500</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>80</v>
+      </c>
+      <c r="F17" s="1">
+        <v>80</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>5</v>
+      </c>
+      <c r="L17" s="1">
+        <v>100</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>5</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S17" s="1">
+        <v>5</v>
+      </c>
+      <c r="T17" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="1" customFormat="1">
-      <c r="A7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>500</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>80</v>
+      </c>
+      <c r="F18" s="1">
+        <v>80</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>5</v>
+      </c>
+      <c r="L18" s="1">
+        <v>100</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>5</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18" s="1">
+        <v>5</v>
+      </c>
+      <c r="T18" s="1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" s="1" customFormat="1">
-      <c r="A8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>500</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>80</v>
+      </c>
+      <c r="F19" s="1">
+        <v>80</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>5</v>
+      </c>
+      <c r="L19" s="1">
+        <v>100</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>5</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S19" s="1">
+        <v>5</v>
+      </c>
+      <c r="T19" s="1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" s="1" customFormat="1">
-      <c r="A9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>500</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>80</v>
+      </c>
+      <c r="F20" s="1">
+        <v>80</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>5</v>
+      </c>
+      <c r="L20" s="1">
+        <v>100</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>5</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S20" s="1">
+        <v>5</v>
+      </c>
+      <c r="T20" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>500</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>80</v>
+      </c>
+      <c r="F21" s="1">
+        <v>80</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>5</v>
+      </c>
+      <c r="L21" s="1">
+        <v>100</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>5</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S21" s="1">
+        <v>5</v>
+      </c>
+      <c r="T21" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>500</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>80</v>
+      </c>
+      <c r="F22" s="1">
+        <v>80</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>5</v>
+      </c>
+      <c r="L22" s="1">
+        <v>100</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>5</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S22" s="1">
+        <v>5</v>
+      </c>
+      <c r="T22" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>500</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>80</v>
+      </c>
+      <c r="F23" s="1">
+        <v>80</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>5</v>
+      </c>
+      <c r="L23" s="1">
+        <v>100</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>5</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S23" s="1">
+        <v>5</v>
+      </c>
+      <c r="T23" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>500</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>80</v>
+      </c>
+      <c r="F24" s="1">
+        <v>80</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>5</v>
+      </c>
+      <c r="L24" s="1">
+        <v>100</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>5</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S24" s="1">
+        <v>5</v>
+      </c>
+      <c r="T24" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>500</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>80</v>
+      </c>
+      <c r="F25" s="1">
+        <v>80</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>5</v>
+      </c>
+      <c r="L25" s="1">
+        <v>100</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>5</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S25" s="1">
+        <v>5</v>
+      </c>
+      <c r="T25" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>500</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>80</v>
+      </c>
+      <c r="F26" s="1">
+        <v>80</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>5</v>
+      </c>
+      <c r="L26" s="1">
+        <v>100</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>5</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S26" s="1">
+        <v>5</v>
+      </c>
+      <c r="T26" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>500</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>80</v>
+      </c>
+      <c r="F27" s="1">
+        <v>80</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>5</v>
+      </c>
+      <c r="L27" s="1">
+        <v>100</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>5</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S27" s="1">
+        <v>5</v>
+      </c>
+      <c r="T27" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>500</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>80</v>
+      </c>
+      <c r="F28" s="1">
+        <v>80</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>5</v>
+      </c>
+      <c r="L28" s="1">
+        <v>100</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>5</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S28" s="1">
+        <v>5</v>
+      </c>
+      <c r="T28" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>500</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>80</v>
+      </c>
+      <c r="F29" s="1">
+        <v>80</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>5</v>
+      </c>
+      <c r="L29" s="1">
+        <v>100</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>5</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="1">
+        <v>5</v>
+      </c>
+      <c r="T29" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>500</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>80</v>
+      </c>
+      <c r="F30" s="1">
+        <v>80</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>5</v>
+      </c>
+      <c r="L30" s="1">
+        <v>100</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>5</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S30" s="1">
+        <v>5</v>
+      </c>
+      <c r="T30" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>500</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>80</v>
+      </c>
+      <c r="F31" s="1">
+        <v>80</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>5</v>
+      </c>
+      <c r="L31" s="1">
+        <v>100</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>5</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S31" s="1">
+        <v>5</v>
+      </c>
+      <c r="T31" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>500</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>80</v>
+      </c>
+      <c r="F32" s="1">
+        <v>80</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>5</v>
+      </c>
+      <c r="L32" s="1">
+        <v>100</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>5</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S32" s="1">
+        <v>5</v>
+      </c>
+      <c r="T32" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>500</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>80</v>
+      </c>
+      <c r="F33" s="1">
+        <v>80</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>5</v>
+      </c>
+      <c r="L33" s="1">
+        <v>100</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>5</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S33" s="1">
+        <v>5</v>
+      </c>
+      <c r="T33" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>500</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>80</v>
+      </c>
+      <c r="F34" s="1">
+        <v>80</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>5</v>
+      </c>
+      <c r="L34" s="1">
+        <v>100</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>5</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S34" s="1">
+        <v>5</v>
+      </c>
+      <c r="T34" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>500</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>80</v>
+      </c>
+      <c r="F35" s="1">
+        <v>80</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>5</v>
+      </c>
+      <c r="L35" s="1">
+        <v>100</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>5</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S35" s="1">
+        <v>5</v>
+      </c>
+      <c r="T35" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>500</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>80</v>
+      </c>
+      <c r="F36" s="1">
+        <v>80</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>5</v>
+      </c>
+      <c r="L36" s="1">
+        <v>100</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>5</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S36" s="1">
+        <v>5</v>
+      </c>
+      <c r="T36" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>500</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>80</v>
+      </c>
+      <c r="F37" s="1">
+        <v>80</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>5</v>
+      </c>
+      <c r="L37" s="1">
+        <v>100</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>5</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S37" s="1">
+        <v>5</v>
+      </c>
+      <c r="T37" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>500</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>80</v>
+      </c>
+      <c r="F38" s="1">
+        <v>80</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>5</v>
+      </c>
+      <c r="L38" s="1">
+        <v>100</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>5</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S38" s="1">
+        <v>5</v>
+      </c>
+      <c r="T38" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>500</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>80</v>
+      </c>
+      <c r="F39" s="1">
+        <v>80</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>5</v>
+      </c>
+      <c r="L39" s="1">
+        <v>100</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>5</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S39" s="1">
+        <v>5</v>
+      </c>
+      <c r="T39" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>500</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>80</v>
+      </c>
+      <c r="F40" s="1">
+        <v>80</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>5</v>
+      </c>
+      <c r="L40" s="1">
+        <v>100</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>5</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S40" s="1">
+        <v>5</v>
+      </c>
+      <c r="T40" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>500</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>80</v>
+      </c>
+      <c r="F41" s="1">
+        <v>80</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>5</v>
+      </c>
+      <c r="L41" s="1">
+        <v>100</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>5</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S41" s="1">
+        <v>5</v>
+      </c>
+      <c r="T41" s="1">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Excel/器灵/WeaponSoul.xlsx
+++ b/Excel/器灵/WeaponSoul.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mywork\UE4\UE4RougeLikeGithub\Excel\器灵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDC9CF5-4A11-4649-A8EC-E9999493EF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{834486E6-F384-4067-9F38-6FE3D85D1B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="WeaponSoul" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -528,7 +528,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="31">
   <si>
     <t>---</t>
   </si>
@@ -624,6 +624,26 @@
   </si>
   <si>
     <t>/Game/Blueprints/Skill/SkillEarth/BP_Skill_Earth_1005.BP_Skill_Earth_1005_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Blueprints/Skill/SkillFire/BP_Skill_Fire_1006.BP_Skill_Fire_1006_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Blueprints/Skill/SkillFire/BP_Skill_Fire_1007.BP_Skill_Fire_1007_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Blueprints/Skill/SkillFire/BP_Skill_Fire_1008.BP_Skill_Fire_1008_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Blueprints/Skill/SkillFire/BP_Skill_Fire_1009.BP_Skill_Fire_1009_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Blueprints/Skill/SkillFire/BP_Skill_Fire_1010.BP_Skill_Fire_1010_C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -808,7 +828,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -988,6 +1008,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1233,11 +1265,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1622,7 +1660,7 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1696,623 +1734,623 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
+    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
         <v>100</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
         <v>40</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>40</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="L2">
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2">
         <v>60</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
         <v>200</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
         <v>50</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>50</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-      <c r="L3">
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>5</v>
+      </c>
+      <c r="L3" s="2">
         <v>70</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3">
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
         <v>2</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="2">
         <v>2</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+    <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
         <v>300</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
         <v>60</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>60</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>5</v>
-      </c>
-      <c r="L4" s="1">
-        <v>80</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1" t="s">
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>5</v>
+      </c>
+      <c r="L4" s="2">
+        <v>80</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4">
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
         <v>3</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="2">
         <v>3</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>400</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
         <v>70</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>70</v>
       </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>5</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2">
         <v>90</v>
       </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5">
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
         <v>4</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="2">
         <v>4</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6">
+    <row r="6" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
         <v>500</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>80</v>
-      </c>
-      <c r="F6" s="1">
-        <v>80</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>5</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>80</v>
+      </c>
+      <c r="F6" s="2">
+        <v>80</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>5</v>
+      </c>
+      <c r="L6" s="2">
         <v>100</v>
       </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>5</v>
-      </c>
-      <c r="R6" s="1" t="s">
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>5</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="1">
-        <v>5</v>
-      </c>
-      <c r="T6">
+      <c r="S6" s="2">
+        <v>5</v>
+      </c>
+      <c r="T6" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+    <row r="7" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
         <v>500</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>80</v>
-      </c>
-      <c r="F7" s="1">
-        <v>80</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>5</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>80</v>
+      </c>
+      <c r="F7" s="3">
+        <v>80</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>5</v>
+      </c>
+      <c r="L7" s="3">
         <v>100</v>
       </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>5</v>
-      </c>
-      <c r="R7" s="1" t="s">
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>5</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S7" s="1">
-        <v>5</v>
-      </c>
-      <c r="T7" s="1">
+      <c r="S7" s="3">
+        <v>5</v>
+      </c>
+      <c r="T7" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+    <row r="8" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
         <v>500</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>80</v>
-      </c>
-      <c r="F8" s="1">
-        <v>80</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>5</v>
-      </c>
-      <c r="L8" s="1">
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>80</v>
+      </c>
+      <c r="F8" s="3">
+        <v>80</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>5</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>5</v>
-      </c>
-      <c r="R8" s="1" t="s">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>5</v>
+      </c>
+      <c r="R8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S8" s="1">
-        <v>5</v>
-      </c>
-      <c r="T8" s="1">
+      <c r="S8" s="3">
+        <v>5</v>
+      </c>
+      <c r="T8" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
+    <row r="9" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
         <v>500</v>
       </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>80</v>
-      </c>
-      <c r="F9" s="1">
-        <v>80</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>5</v>
-      </c>
-      <c r="L9" s="1">
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>80</v>
+      </c>
+      <c r="F9" s="3">
+        <v>80</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>5</v>
-      </c>
-      <c r="R9" s="1" t="s">
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S9" s="1">
-        <v>5</v>
-      </c>
-      <c r="T9" s="1">
+      <c r="S9" s="3">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
+    <row r="10" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
         <v>500</v>
       </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>80</v>
-      </c>
-      <c r="F10" s="1">
-        <v>80</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>5</v>
-      </c>
-      <c r="L10" s="1">
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>80</v>
+      </c>
+      <c r="F10" s="3">
+        <v>80</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>5</v>
-      </c>
-      <c r="R10" s="1" t="s">
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S10" s="1">
-        <v>5</v>
-      </c>
-      <c r="T10" s="1">
+      <c r="S10" s="3">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
+    <row r="11" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
         <v>500</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>80</v>
-      </c>
-      <c r="F11" s="1">
-        <v>80</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>5</v>
-      </c>
-      <c r="L11" s="1">
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>80</v>
+      </c>
+      <c r="F11" s="3">
+        <v>80</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>5</v>
+      </c>
+      <c r="L11" s="3">
         <v>100</v>
       </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>5</v>
-      </c>
-      <c r="R11" s="1" t="s">
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>5</v>
+      </c>
+      <c r="R11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="1">
-        <v>5</v>
-      </c>
-      <c r="T11" s="1">
+      <c r="S11" s="3">
+        <v>5</v>
+      </c>
+      <c r="T11" s="3">
         <v>25</v>
       </c>
     </row>
